--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426097.476523633</v>
+        <v>3419080.461631921</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>208.4651916338514</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>116.656332317298</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494254</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>201.3302879382941</v>
       </c>
       <c r="T4" t="n">
-        <v>173.8990189732827</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>197.6661474214227</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>146.7032454636445</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.82466560786628</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>85.72834075468877</v>
+        <v>249.5404099831619</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>104.6795171151347</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.97351314171614</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>208.0425468557735</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>247.0487268677682</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>178.6584025680378</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>97.81099857300327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>38.37531847059725</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.2787299119464</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.99394496323067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>145.5209865847986</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.00807076326775</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>112.6185215999992</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>91.20669925687569</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>58.44308935822986</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2255.372013222632</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2001.610227860724</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1670.547340517153</v>
       </c>
       <c r="W2" t="n">
-        <v>2149.375138862102</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="X2" t="n">
-        <v>2149.375138862102</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y2" t="n">
-        <v>2149.375138862102</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,19 +4406,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="T4" t="n">
-        <v>338.1849863041093</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="U4" t="n">
-        <v>338.1849863041093</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>338.1849863041093</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>338.1849863041093</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>338.1849863041093</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.1849863041093</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1050.379914381371</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>664.5916617831263</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>253.6057569935187</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2548.963994590299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2330.329327562361</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2330.329327562361</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1999.266440218791</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1646.497784948677</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1273.032026687597</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.8926947117852</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,34 +4655,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>643.4576048045491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.95295430729</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="D8" t="n">
-        <v>1122.95295430729</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="E8" t="n">
-        <v>1122.95295430729</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="F8" t="n">
-        <v>711.9670495176827</v>
+        <v>319.9274060667855</v>
       </c>
       <c r="G8" t="n">
-        <v>294.0032414158695</v>
+        <v>306.0040020053764</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287635</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,22 +4904,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>352.226339726024</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>205.3363922281136</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380754</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380754</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="11">
@@ -5035,58 +5035,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>844.1942894808745</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>1064.986868624405</v>
       </c>
       <c r="X13" t="n">
-        <v>785.7936752259998</v>
+        <v>1064.986868624405</v>
       </c>
       <c r="Y13" t="n">
-        <v>785.7936752259998</v>
+        <v>844.1942894808745</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5275,28 +5275,28 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5305,19 +5305,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>736.4580480076656</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>447.040877970705</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514085</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,19 +5582,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
         <v>674.428562457161</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1318.453237660895</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1094.667822450401</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>805.539183663959</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>805.539183663959</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>805.539183663959</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>805.539183663959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,40 +5740,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3686.322319899658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3517.386136971751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808406</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>4316.752914771445</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>4088.763363873428</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y22" t="n">
-        <v>3867.970784729898</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822457</v>
@@ -5992,49 +5992,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6150,10 +6150,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>910.7801019789154</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>910.7801019789154</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6259,13 +6259,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1336.117678709276</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1336.117678709276</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1336.117678709276</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>1336.117678709276</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>1046.700508672316</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X28" t="n">
-        <v>818.7109577742983</v>
+        <v>731.31772835508</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.9183786307682</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6478,22 +6478,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488384</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>898.7925182488384</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W31" t="n">
-        <v>609.3753482118777</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X31" t="n">
-        <v>381.3857973138604</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="Y31" t="n">
-        <v>359.1696912903951</v>
+        <v>244.9733843006357</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6697,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7165,13 +7165,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7183,22 +7183,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7323,13 +7323,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7341,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V40" t="n">
-        <v>1185.240178049213</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W40" t="n">
-        <v>895.8230080122524</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="X40" t="n">
-        <v>667.8334571142351</v>
+        <v>357.5203921878144</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7405,34 +7405,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>751.5882039991534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>751.5882039991534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>601.4715645868176</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>453.5584710044245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>306.6685235065141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>306.6685235065141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>156.2505150544574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293931</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>933.2366688293931</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>933.2366688293931</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2366688293931</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.8584670402212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>78.48045148081752</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>5.088916456059792</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>19.26240741556543</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>90.96703739368768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.26883114644286</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>127.8986568160339</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>36.75020405346345</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>180.2093348814975</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.55325026999094</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.5907083888641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>33.38685156731853</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>52.39982339880461</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.82390941866954</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>139.5191217238288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.3779540952191</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>51.97615610604213</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709094</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933076</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541049</v>
@@ -26346,13 +26346,13 @@
         <v>664749.4015541046</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.401554105</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541049</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007442</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007481</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007444</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
@@ -26450,16 +26450,16 @@
         <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-122858.5016092338</v>
       </c>
       <c r="C6" t="n">
-        <v>467109.377605311</v>
+        <v>467109.3776053108</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.377605311</v>
+        <v>467109.3776053104</v>
       </c>
       <c r="E6" t="n">
-        <v>39685.30747248472</v>
+        <v>38710.71621276289</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.3439493803</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.3439493809</v>
+        <v>563870.752689659</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.3439493811</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.3439493803</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="J6" t="n">
-        <v>388422.1247567878</v>
+        <v>387447.5334970661</v>
       </c>
       <c r="K6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="L6" t="n">
-        <v>564845.3439493806</v>
+        <v>563870.7526896589</v>
       </c>
       <c r="M6" t="n">
-        <v>430044.3287155437</v>
+        <v>429069.7374558219</v>
       </c>
       <c r="N6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.752689659</v>
       </c>
       <c r="O6" t="n">
-        <v>564845.3439493809</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="P6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.7526896591</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26971,7 +26971,7 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>7.983128723806374</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>232.584636400115</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>10.81525101172483</v>
       </c>
       <c r="T4" t="n">
-        <v>51.13608648480155</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>216.1180225993723</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>27.71246734532701</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>141.210439850218</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>238.1944320096684</v>
+        <v>74.3823627811953</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.94594161440349</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>62.63028514391624</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.590653145880544e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36366,22 +36366,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349766</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>670.9270633411919</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3419080.461631921</v>
+        <v>3424019.724480954</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800616</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>302.3889105708068</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>208.4651916338514</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,10 +794,10 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888678</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>201.3302879382941</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>197.6661474214227</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>146.3613440997552</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>249.5404099831619</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>135.4916857204436</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>104.6795171151347</v>
+        <v>118.3167770327491</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>84.14937800123577</v>
       </c>
       <c r="W13" t="n">
-        <v>208.0425468557735</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>122.6519788371597</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.09091720605241</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.37531847059725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.2787299119464</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>145.5209865847986</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>91.20669925687569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>26.97444673954853</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>206.8064269214864</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>122.6519788371604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1170.083887280541</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>784.2956346822971</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>373.3097298926895</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>359.3863258312804</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2255.372013222632</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>2001.610227860724</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1670.547340517153</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1317.778685247039</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1317.778685247039</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1317.778685247039</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4406,40 +4406,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>524.7650569960363</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>524.7650569960363</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.645612988121</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1408.645612988121</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1050.379914381371</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>664.5916617831263</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>253.6057569935187</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
         <v>667.8624625746712</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>730.9133108563931</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>730.9133108563931</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>730.9133108563931</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>730.9133108563931</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>319.9274060667855</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>306.0040020053764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4837,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2329.082625256377</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1117.513150920515</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4941,25 +4941,25 @@
         <v>500.1394333084171</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084171</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="D10" t="n">
-        <v>500.1394333084171</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="E10" t="n">
-        <v>352.226339726024</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="F10" t="n">
-        <v>205.3363922281136</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.1942894808745</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529677</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529677</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>1413.916898839482</v>
       </c>
       <c r="W13" t="n">
-        <v>1064.986868624405</v>
+        <v>1124.499728802522</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.986868624405</v>
+        <v>896.5101779045042</v>
       </c>
       <c r="Y13" t="n">
-        <v>844.1942894808745</v>
+        <v>675.7175987609741</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,19 +5764,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515096</v>
@@ -6004,22 +6004,22 @@
         <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1418.016354188152</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1218.096344103704</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932103</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>731.31772835508</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>731.31772835508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,55 +6445,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>755.1831334811264</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>465.7659634441658</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>465.7659634441658</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>244.9733843006357</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823808</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6727,25 +6727,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6858,52 +6858,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1240.850271579528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>1017.064856369034</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515096</v>
@@ -7189,34 +7189,34 @@
         <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227924</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>874.9271131227924</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>585.5099430858318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>357.5203921878144</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7572,49 +7572,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7809,46 +7809,46 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298301</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978339</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978333</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298392</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172076</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711669</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928337</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928337</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>167.9882653225922</v>
       </c>
       <c r="W13" t="n">
-        <v>78.48045148081752</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.26883114644286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>29.87343519774041</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.2093348814975</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.55325026999094</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>52.39982339880461</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518776</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>127.3779540952191</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424429</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>79.43092547709094</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="H2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541049</v>
-      </c>
       <c r="L2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="M2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="M2" t="n">
-        <v>664749.4015541049</v>
-      </c>
       <c r="N2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="O2" t="n">
-        <v>664749.4015541049</v>
-      </c>
       <c r="P2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007442</v>
+        <v>7916.731656007567</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007541</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007547</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007547</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.73165600749</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007444</v>
+        <v>7916.731656007488</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007536</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007489</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007489</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.73165600749</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007487</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-122858.5016092338</v>
       </c>
       <c r="C6" t="n">
-        <v>467109.3776053108</v>
+        <v>467109.377605311</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.3776053104</v>
+        <v>467109.3776053105</v>
       </c>
       <c r="E6" t="n">
-        <v>38710.71621276289</v>
+        <v>39587.84834651322</v>
       </c>
       <c r="F6" t="n">
-        <v>563870.7526896591</v>
+        <v>564747.8848234088</v>
       </c>
       <c r="G6" t="n">
-        <v>563870.752689659</v>
+        <v>564747.8848234089</v>
       </c>
       <c r="H6" t="n">
-        <v>563870.7526896591</v>
+        <v>564747.8848234089</v>
       </c>
       <c r="I6" t="n">
-        <v>563870.7526896591</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="J6" t="n">
-        <v>387447.5334970661</v>
+        <v>388324.6656308156</v>
       </c>
       <c r="K6" t="n">
-        <v>563870.7526896591</v>
+        <v>564747.8848234084</v>
       </c>
       <c r="L6" t="n">
-        <v>563870.7526896589</v>
+        <v>564747.8848234082</v>
       </c>
       <c r="M6" t="n">
-        <v>429069.7374558219</v>
+        <v>429946.8695895713</v>
       </c>
       <c r="N6" t="n">
-        <v>563870.752689659</v>
+        <v>564747.8848234084</v>
       </c>
       <c r="O6" t="n">
-        <v>563870.7526896591</v>
+        <v>564747.8848234086</v>
       </c>
       <c r="P6" t="n">
-        <v>563870.7526896591</v>
+        <v>564747.8848234084</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>21.53386219355031</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.983128723806374</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>10.81525101172483</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>216.1180225993723</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27672,10 +27672,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>104.8628234085341</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>74.3823627811953</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>115.7324817878457</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>62.63028514391624</v>
+        <v>48.99302522630178</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.590653145880544e-13</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,43 +32864,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958075</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958075</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.37802194151</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130335</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
